--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3428.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3428.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.821252196598795</v>
+        <v>1.377412438392639</v>
       </c>
       <c r="B1">
-        <v>1.164679439753344</v>
+        <v>2.652031421661377</v>
       </c>
       <c r="C1">
-        <v>2.193059554288996</v>
+        <v>5.805872440338135</v>
       </c>
       <c r="D1">
-        <v>4.866945902764349</v>
+        <v>2.257520437240601</v>
       </c>
       <c r="E1">
-        <v>3.15488665692793</v>
+        <v>1.214731216430664</v>
       </c>
     </row>
   </sheetData>
